--- a/05/05-04/1月集計.xlsx
+++ b/05/05-04/1月集計.xlsx
@@ -1,42 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\J_SoftBankクリエイティブ\4.ExcelVBA2021改定\Sample_Data_2021\Chapter_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wazu0\OneDrive\ドキュメント\ワークスペース\00_着手\Excel　マクロ\Sample_Data\05\05-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6AF5F-76CF-462B-9EAB-CB62FF0D587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDFB69-4934-4B10-B747-A0B4409F1588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2460" windowWidth="14400" windowHeight="8325" xr2:uid="{A0469990-59F8-4BDE-9B7C-08BFB3172411}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="9130" windowHeight="10800" xr2:uid="{A0469990-59F8-4BDE-9B7C-08BFB3172411}"/>
   </bookViews>
   <sheets>
-    <sheet name="まとめ" sheetId="1" r:id="rId1"/>
+    <sheet name="元表" sheetId="5" r:id="rId1"/>
+    <sheet name="まとめ" sheetId="1" r:id="rId2"/>
+    <sheet name="新宿１月" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+  <si>
+    <t>商品A</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品C</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品B</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新宿</t>
+    <rPh sb="0" eb="2">
+      <t>シンジュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +112,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,18 +143,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,16 +500,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5449DAE-5EFB-41DD-AFE2-E14C25DBFCAF}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4455451B-2BF5-4A53-AC53-E074190DC1D7}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A4B7E9-D376-4E25-A2B5-05A37D789AE0}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>44563</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>44564</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>44565</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>44566</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>44567</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>44568</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>44569</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>